--- a/team_specific_matrix/Iowa_A.xlsx
+++ b/team_specific_matrix/Iowa_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1854419410745234</v>
+        <v>0.1901639344262295</v>
       </c>
       <c r="C2">
-        <v>0.5788561525129983</v>
+        <v>0.5721311475409836</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01386481802426343</v>
+        <v>0.01311475409836066</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1386481802426343</v>
+        <v>0.140983606557377</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0831889081455806</v>
+        <v>0.08360655737704918</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0198300283286119</v>
+        <v>0.01902173913043478</v>
       </c>
       <c r="C3">
-        <v>0.04815864022662889</v>
+        <v>0.04619565217391304</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0339943342776204</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7223796033994334</v>
+        <v>0.7255434782608695</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1756373937677054</v>
+        <v>0.1766304347826087</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02962962962962963</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7703703703703704</v>
+        <v>0.762589928057554</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2086330935251799</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07853403141361257</v>
+        <v>0.07469879518072289</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01570680628272251</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08376963350785341</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2853403141361257</v>
+        <v>0.2987951807228916</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01047120418848168</v>
+        <v>0.009638554216867471</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.193717277486911</v>
+        <v>0.1879518072289157</v>
       </c>
       <c r="R6">
-        <v>0.06282722513089005</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="S6">
-        <v>0.2696335078534031</v>
+        <v>0.2698795180722892</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1008403361344538</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0392156862745098</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04481792717086835</v>
+        <v>0.056</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1400560224089636</v>
+        <v>0.136</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01400560224089636</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1876750700280112</v>
+        <v>0.192</v>
       </c>
       <c r="R7">
-        <v>0.06442577030812324</v>
+        <v>0.064</v>
       </c>
       <c r="S7">
-        <v>0.4089635854341737</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1210526315789474</v>
+        <v>0.1177944862155388</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02368421052631579</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="E8">
-        <v>0.00131578947368421</v>
+        <v>0.0012531328320802</v>
       </c>
       <c r="F8">
-        <v>0.05394736842105263</v>
+        <v>0.05764411027568922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1223684210526316</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01447368421052632</v>
+        <v>0.0137844611528822</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.225</v>
+        <v>0.2205513784461153</v>
       </c>
       <c r="R8">
-        <v>0.06578947368421052</v>
+        <v>0.06516290726817042</v>
       </c>
       <c r="S8">
-        <v>0.3723684210526316</v>
+        <v>0.3771929824561404</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1059431524547804</v>
+        <v>0.1075</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03617571059431524</v>
+        <v>0.035</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.041343669250646</v>
+        <v>0.045</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1136950904392765</v>
+        <v>0.1125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01550387596899225</v>
+        <v>0.015</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="R9">
-        <v>0.05943152454780361</v>
+        <v>0.0625</v>
       </c>
       <c r="S9">
-        <v>0.4056847545219638</v>
+        <v>0.4025</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1059870550161812</v>
+        <v>0.1062452399086063</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03478964401294499</v>
+        <v>0.03389185072353389</v>
       </c>
       <c r="E10">
-        <v>0.0008090614886731392</v>
+        <v>0.0007616146230007616</v>
       </c>
       <c r="F10">
-        <v>0.06027508090614887</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1152912621359223</v>
+        <v>0.115003808073115</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01415857605177994</v>
+        <v>0.01561309977151561</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2560679611650485</v>
+        <v>0.2536176694592536</v>
       </c>
       <c r="R10">
-        <v>0.07807443365695793</v>
+        <v>0.07730388423457731</v>
       </c>
       <c r="S10">
-        <v>0.334546925566343</v>
+        <v>0.3381568926123382</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1530249110320285</v>
+        <v>0.1573604060913706</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08007117437722421</v>
+        <v>0.07952622673434856</v>
       </c>
       <c r="K11">
-        <v>0.193950177935943</v>
+        <v>0.1979695431472081</v>
       </c>
       <c r="L11">
-        <v>0.5640569395017794</v>
+        <v>0.55668358714044</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008896797153024912</v>
+        <v>0.008460236886632826</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7155963302752294</v>
+        <v>0.7138643067846607</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2201834862385321</v>
+        <v>0.2182890855457227</v>
       </c>
       <c r="K12">
-        <v>0.006116207951070336</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="L12">
-        <v>0.01834862385321101</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03975535168195719</v>
+        <v>0.04129793510324484</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6617647058823529</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07352941176470588</v>
+        <v>0.0684931506849315</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01558441558441558</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1246753246753247</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="I15">
-        <v>0.08051948051948052</v>
+        <v>0.07785888077858881</v>
       </c>
       <c r="J15">
-        <v>0.3844155844155844</v>
+        <v>0.3892944038929441</v>
       </c>
       <c r="K15">
-        <v>0.07012987012987013</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01038961038961039</v>
+        <v>0.009732360097323601</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05974025974025974</v>
+        <v>0.06082725060827251</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2545454545454545</v>
+        <v>0.2554744525547445</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02102803738317757</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1518691588785047</v>
+        <v>0.1495535714285714</v>
       </c>
       <c r="I16">
-        <v>0.0911214953271028</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="J16">
-        <v>0.4345794392523364</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="K16">
-        <v>0.07242990654205607</v>
+        <v>0.078125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01869158878504673</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N16">
-        <v>0.004672897196261682</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O16">
-        <v>0.06542056074766354</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1401869158878505</v>
+        <v>0.1383928571428572</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02420135527589545</v>
+        <v>0.02587800369685767</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1481122942884802</v>
+        <v>0.1487985212569316</v>
       </c>
       <c r="I17">
-        <v>0.09390125847047434</v>
+        <v>0.0933456561922366</v>
       </c>
       <c r="J17">
-        <v>0.452081316553727</v>
+        <v>0.4537892791127542</v>
       </c>
       <c r="K17">
-        <v>0.1035818005808325</v>
+        <v>0.1007393715341959</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01936108422071636</v>
+        <v>0.01940850277264325</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04743465634075508</v>
+        <v>0.04990757855822551</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1113262342691191</v>
+        <v>0.1081330868761553</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01587301587301587</v>
+        <v>0.01510574018126888</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1682539682539683</v>
+        <v>0.1722054380664653</v>
       </c>
       <c r="I18">
-        <v>0.1047619047619048</v>
+        <v>0.09969788519637462</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4471299093655589</v>
       </c>
       <c r="K18">
-        <v>0.1047619047619048</v>
+        <v>0.1087613293051359</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0126984126984127</v>
+        <v>0.01208459214501511</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05396825396825397</v>
+        <v>0.0513595166163142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09523809523809523</v>
+        <v>0.09365558912386707</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01483812949640288</v>
+        <v>0.01484938481120068</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2009892086330935</v>
+        <v>0.1981332201951634</v>
       </c>
       <c r="I19">
-        <v>0.08318345323741007</v>
+        <v>0.08230801866779805</v>
       </c>
       <c r="J19">
-        <v>0.3673561151079137</v>
+        <v>0.3708103521425541</v>
       </c>
       <c r="K19">
-        <v>0.1128597122302158</v>
+        <v>0.1124310564276623</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01573741007194245</v>
+        <v>0.01654645736105219</v>
       </c>
       <c r="N19">
-        <v>0.0008992805755395684</v>
+        <v>0.0008485362749257531</v>
       </c>
       <c r="O19">
-        <v>0.07284172661870504</v>
+        <v>0.07297411964361476</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.131294964028777</v>
+        <v>0.1310988544760288</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Iowa_A.xlsx
+++ b/team_specific_matrix/Iowa_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1901639344262295</v>
+        <v>0.1929260450160772</v>
       </c>
       <c r="C2">
-        <v>0.5721311475409836</v>
+        <v>0.567524115755627</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01311475409836066</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.140983606557377</v>
+        <v>0.1414790996784566</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08360655737704918</v>
+        <v>0.08520900321543408</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01902173913043478</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C3">
-        <v>0.04619565217391304</v>
+        <v>0.04582210242587601</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03260869565217391</v>
+        <v>0.03234501347708895</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7255434782608695</v>
+        <v>0.7277628032345014</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1766304347826087</v>
+        <v>0.1752021563342318</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02877697841726619</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.762589928057554</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2086330935251799</v>
+        <v>0.2056737588652482</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07469879518072289</v>
+        <v>0.07294117647058823</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01445783132530121</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08433734939759036</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2987951807228916</v>
+        <v>0.2964705882352941</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009638554216867471</v>
+        <v>0.009411764705882352</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1879518072289157</v>
+        <v>0.1858823529411765</v>
       </c>
       <c r="R6">
-        <v>0.06024096385542169</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S6">
-        <v>0.2698795180722892</v>
+        <v>0.2776470588235294</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09866666666666667</v>
+        <v>0.1020942408376963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.03926701570680628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.056</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.136</v>
+        <v>0.1387434554973822</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01333333333333333</v>
+        <v>0.01308900523560209</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.192</v>
+        <v>0.1910994764397906</v>
       </c>
       <c r="R7">
-        <v>0.064</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.3952879581151832</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1177944862155388</v>
+        <v>0.1159062885326757</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02255639097744361</v>
+        <v>0.02219482120838471</v>
       </c>
       <c r="E8">
-        <v>0.0012531328320802</v>
+        <v>0.001233045622688039</v>
       </c>
       <c r="F8">
-        <v>0.05764411027568922</v>
+        <v>0.05795314426633785</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1240601503759398</v>
+        <v>0.124537607891492</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0137844611528822</v>
+        <v>0.01356350184956843</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2205513784461153</v>
+        <v>0.219482120838471</v>
       </c>
       <c r="R8">
-        <v>0.06516290726817042</v>
+        <v>0.06658446362515413</v>
       </c>
       <c r="S8">
-        <v>0.3771929824561404</v>
+        <v>0.3785450061652281</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1075</v>
+        <v>0.1053921568627451</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.035</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.045</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1125</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.22</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="R9">
-        <v>0.0625</v>
+        <v>0.06127450980392157</v>
       </c>
       <c r="S9">
-        <v>0.4025</v>
+        <v>0.4068627450980392</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1062452399086063</v>
+        <v>0.1064227035100822</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03389185072353389</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="E10">
-        <v>0.0007616146230007616</v>
+        <v>0.0007468259895444362</v>
       </c>
       <c r="F10">
-        <v>0.0594059405940594</v>
+        <v>0.05974607916355489</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.115003808073115</v>
+        <v>0.1157580283793876</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01561309977151561</v>
+        <v>0.01530993278566094</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2536176694592536</v>
+        <v>0.2528005974607916</v>
       </c>
       <c r="R10">
-        <v>0.07730388423457731</v>
+        <v>0.07729648991784914</v>
       </c>
       <c r="S10">
-        <v>0.3381568926123382</v>
+        <v>0.3379387602688573</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1573604060913706</v>
+        <v>0.159468438538206</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07952622673434856</v>
+        <v>0.07807308970099668</v>
       </c>
       <c r="K11">
-        <v>0.1979695431472081</v>
+        <v>0.1993355481727575</v>
       </c>
       <c r="L11">
-        <v>0.55668358714044</v>
+        <v>0.553156146179402</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008460236886632826</v>
+        <v>0.009966777408637873</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7138643067846607</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2182890855457227</v>
+        <v>0.2157434402332362</v>
       </c>
       <c r="K12">
-        <v>0.005899705014749262</v>
+        <v>0.005830903790087463</v>
       </c>
       <c r="L12">
-        <v>0.02064896755162242</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04129793510324484</v>
+        <v>0.04373177842565597</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6575342465753424</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.273972602739726</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0684931506849315</v>
+        <v>0.06756756756756757</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0145985401459854</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1265206812652068</v>
+        <v>0.1253012048192771</v>
       </c>
       <c r="I15">
-        <v>0.07785888077858881</v>
+        <v>0.07710843373493977</v>
       </c>
       <c r="J15">
-        <v>0.3892944038929441</v>
+        <v>0.3879518072289156</v>
       </c>
       <c r="K15">
-        <v>0.06569343065693431</v>
+        <v>0.06506024096385542</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009732360097323601</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06082725060827251</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2554744525547445</v>
+        <v>0.255421686746988</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02678571428571428</v>
+        <v>0.02637362637362637</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1495535714285714</v>
+        <v>0.1494505494505494</v>
       </c>
       <c r="I16">
-        <v>0.08705357142857142</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J16">
-        <v>0.4330357142857143</v>
+        <v>0.432967032967033</v>
       </c>
       <c r="K16">
-        <v>0.078125</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="N16">
-        <v>0.004464285714285714</v>
+        <v>0.004395604395604396</v>
       </c>
       <c r="O16">
-        <v>0.06473214285714286</v>
+        <v>0.06373626373626373</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1383928571428572</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02587800369685767</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1487985212569316</v>
+        <v>0.1474067333939945</v>
       </c>
       <c r="I17">
-        <v>0.0933456561922366</v>
+        <v>0.09372156505914468</v>
       </c>
       <c r="J17">
-        <v>0.4537892791127542</v>
+        <v>0.4522292993630573</v>
       </c>
       <c r="K17">
-        <v>0.1007393715341959</v>
+        <v>0.102820746132848</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01940850277264325</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04990757855822551</v>
+        <v>0.05004549590536852</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1081330868761553</v>
+        <v>0.1091901728844404</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01510574018126888</v>
+        <v>0.01483679525222552</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1722054380664653</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="I18">
-        <v>0.09969788519637462</v>
+        <v>0.09792284866468842</v>
       </c>
       <c r="J18">
-        <v>0.4471299093655589</v>
+        <v>0.4510385756676558</v>
       </c>
       <c r="K18">
-        <v>0.1087613293051359</v>
+        <v>0.1068249258160237</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01208459214501511</v>
+        <v>0.01186943620178042</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0513595166163142</v>
+        <v>0.05044510385756677</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09365558912386707</v>
+        <v>0.09198813056379822</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01484938481120068</v>
+        <v>0.01537822111388196</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1981332201951634</v>
+        <v>0.1978387364921031</v>
       </c>
       <c r="I19">
-        <v>0.08230801866779805</v>
+        <v>0.08312551953449709</v>
       </c>
       <c r="J19">
-        <v>0.3708103521425541</v>
+        <v>0.3728179551122194</v>
       </c>
       <c r="K19">
-        <v>0.1124310564276623</v>
+        <v>0.1118038237738986</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01654645736105219</v>
+        <v>0.01620947630922693</v>
       </c>
       <c r="N19">
-        <v>0.0008485362749257531</v>
+        <v>0.0008312551953449709</v>
       </c>
       <c r="O19">
-        <v>0.07297411964361476</v>
+        <v>0.07190357439733998</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1310988544760288</v>
+        <v>0.130091438071488</v>
       </c>
     </row>
   </sheetData>
